--- a/src/main/resources/files/车次导入模板.xlsx
+++ b/src/main/resources/files/车次导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,25 @@
   </si>
   <si>
     <t>软座票数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6201</t>
+  </si>
+  <si>
+    <t>G6201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,9 +217,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -545,52 +561,52 @@
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -692,6 +708,94 @@
         <v>92.5</v>
       </c>
       <c r="Y4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>199.5</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>119.5</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>99.5</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>74.5</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="X6">
+        <v>74.5</v>
+      </c>
+      <c r="Y6">
         <v>500</v>
       </c>
     </row>
